--- a/All_patent_all.xlsx
+++ b/All_patent_all.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/kartikmittal/Desktop/WebScrapping/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/kartikmittal/Desktop/Google-Patent-Image-Scraper/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{29B20CDC-95F6-9443-A34D-A70CEEBED8C1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CCA2767D-3F9A-4343-BBC3-2E535762D0C0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="3080" yWindow="2040" windowWidth="28040" windowHeight="17440" xr2:uid="{A91BE156-44C7-B44D-BAE0-6C9DF58470D9}"/>
   </bookViews>
@@ -36,39 +36,99 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="11" uniqueCount="11">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="31" uniqueCount="31">
   <si>
     <t>patent_number</t>
   </si>
   <si>
-    <t>US11445724B2</t>
-  </si>
-  <si>
-    <t>US10544148B2</t>
-  </si>
-  <si>
-    <t>US9756858B2</t>
-  </si>
-  <si>
-    <t>US10959432B2</t>
-  </si>
-  <si>
-    <t>CN104203916B</t>
-  </si>
-  <si>
-    <t>EP3019476B1</t>
-  </si>
-  <si>
-    <t>EP3683213B1</t>
-  </si>
-  <si>
-    <t>US10435401B2</t>
-  </si>
-  <si>
-    <t>US9771365B2</t>
-  </si>
-  <si>
-    <t>US11358957B2</t>
+    <t>US7534737B2</t>
+  </si>
+  <si>
+    <t>ES2953140T3</t>
+  </si>
+  <si>
+    <t>EP3433252B1</t>
+  </si>
+  <si>
+    <t>US9988366B2</t>
+  </si>
+  <si>
+    <t>US9926294B2</t>
+  </si>
+  <si>
+    <t>EP3286187B1</t>
+  </si>
+  <si>
+    <t>EP2621462B1</t>
+  </si>
+  <si>
+    <t>BR112021008675A2</t>
+  </si>
+  <si>
+    <t>EP3190889B1</t>
+  </si>
+  <si>
+    <t>KR101617564B1</t>
+  </si>
+  <si>
+    <t>CA2889919C</t>
+  </si>
+  <si>
+    <t>US10040839B2</t>
+  </si>
+  <si>
+    <t>CA2742993C</t>
+  </si>
+  <si>
+    <t>US8791042B2</t>
+  </si>
+  <si>
+    <t>EP2542083B1</t>
+  </si>
+  <si>
+    <t>US9884314B2</t>
+  </si>
+  <si>
+    <t>CA2673584C</t>
+  </si>
+  <si>
+    <t>EP2665707B1</t>
+  </si>
+  <si>
+    <t>EP2065087B1</t>
+  </si>
+  <si>
+    <t>US20240049719A1</t>
+  </si>
+  <si>
+    <t>US11234437B2</t>
+  </si>
+  <si>
+    <t>KR20230009422A</t>
+  </si>
+  <si>
+    <t>US8207271B2</t>
+  </si>
+  <si>
+    <t>US8609911B1</t>
+  </si>
+  <si>
+    <t>US9169449B2</t>
+  </si>
+  <si>
+    <t>US20210317407A1</t>
+  </si>
+  <si>
+    <t>EP3642184A1</t>
+  </si>
+  <si>
+    <t>EP3144308B1</t>
+  </si>
+  <si>
+    <t>CN107223138B</t>
+  </si>
+  <si>
+    <t>AU2006318400C1</t>
   </si>
 </sst>
 </file>
@@ -440,10 +500,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{99DB53DD-A281-7F49-9769-9E226EFF4491}">
-  <dimension ref="A1:A11"/>
+  <dimension ref="A1:A31"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D10" sqref="D10"/>
+      <selection activeCell="A22" sqref="A22:XFD22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -503,6 +563,106 @@
         <v>10</v>
       </c>
     </row>
+    <row r="12" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A12" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="13" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A13" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="14" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A14" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="15" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A15" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="16" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A16" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="17" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A17" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="18" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A18" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="19" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A19" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="20" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A20" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="21" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A21" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="22" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A22" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="23" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A23" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="24" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A24" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="25" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A25" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="26" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A26" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="27" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A27" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="28" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A28" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="29" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A29" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="30" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A30" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="31" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A31" t="s">
+        <v>30</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
